--- a/www.eia.gov/electricity/monthly/xls/table_1_12_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_12_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>Table 1.12.A. Utility Scale Facility Net Generation from Hydroelectric (Pumped Storage) Power</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -83,6 +83,9 @@
     <t>Connecticut</t>
   </si>
   <si>
+    <t>NM</t>
+  </si>
+  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
   </si>
   <si>
     <t>East South Central</t>
-  </si>
-  <si>
-    <t>NM</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -1392,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="C7" s="10">
-        <v>-44</v>
+        <v>-25</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.14199999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="H7" s="10">
-        <v>-44</v>
+        <v>-25</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.29199999999999998</v>
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13">
         <v>-38</v>
       </c>
       <c r="C10" s="13">
-        <v>-45</v>
+        <v>-25</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.14000000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>-38</v>
       </c>
       <c r="H10" s="13">
-        <v>-45</v>
+        <v>-25</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="13">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="13">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1655,28 +1655,28 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="10">
-        <v>-103</v>
+        <v>-88</v>
       </c>
       <c r="C14" s="10">
-        <v>-91</v>
+        <v>-76</v>
       </c>
       <c r="D14" s="11">
-        <v>0.13100000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="E14" s="10">
-        <v>-51</v>
+        <v>-40</v>
       </c>
       <c r="F14" s="10">
-        <v>-56</v>
+        <v>-34</v>
       </c>
       <c r="G14" s="10">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="H14" s="10">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="C15" s="13">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D15" s="14">
-        <v>1.085</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E15" s="13">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F15" s="13">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
@@ -1731,22 +1731,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="13">
-        <v>-39</v>
+        <v>-26</v>
       </c>
       <c r="C16" s="13">
-        <v>-50</v>
+        <v>-24</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.22800000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>-39</v>
+        <v>-26</v>
       </c>
       <c r="F16" s="13">
-        <v>-50</v>
+        <v>-24</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -1769,16 +1769,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="C17" s="13">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="D17" s="14">
-        <v>0.48499999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="H17" s="13">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1807,22 +1807,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>-71</v>
+        <v>-48</v>
       </c>
       <c r="C18" s="10">
-        <v>-52</v>
+        <v>-21</v>
       </c>
       <c r="D18" s="11">
-        <v>0.38500000000000001</v>
+        <v>1.264</v>
       </c>
       <c r="E18" s="10">
-        <v>-71</v>
+        <v>-48</v>
       </c>
       <c r="F18" s="10">
-        <v>-52</v>
+        <v>-21</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="13">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="13">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -1921,22 +1921,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>-71</v>
+        <v>-48</v>
       </c>
       <c r="C21" s="13">
-        <v>-52</v>
+        <v>-21</v>
       </c>
       <c r="D21" s="14">
-        <v>0.38500000000000001</v>
+        <v>1.264</v>
       </c>
       <c r="E21" s="13">
-        <v>-71</v>
+        <v>-48</v>
       </c>
       <c r="F21" s="13">
-        <v>-52</v>
+        <v>-21</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="13">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="13">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -2035,22 +2035,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="C24" s="10">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="D24" s="11">
-        <v>-1.84</v>
+        <v>-5.4820000000000002</v>
       </c>
       <c r="E24" s="10">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="F24" s="10">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="13">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="13">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -2187,22 +2187,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="C28" s="13">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="D28" s="14">
-        <v>-1.84</v>
+        <v>-5.4820000000000002</v>
       </c>
       <c r="E28" s="13">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="F28" s="13">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="13">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="13">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="13">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="13">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="13">
         <v>0</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>-270</v>
+        <v>-233</v>
       </c>
       <c r="C32" s="10">
-        <v>-229</v>
+        <v>-92</v>
       </c>
       <c r="D32" s="11">
-        <v>0.17899999999999999</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="E32" s="10">
-        <v>-270</v>
+        <v>-233</v>
       </c>
       <c r="F32" s="10">
-        <v>-229</v>
+        <v>-92</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="13">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="13">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2491,22 +2491,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>-138</v>
+        <v>-135</v>
       </c>
       <c r="C36" s="13">
-        <v>-103</v>
-      </c>
-      <c r="D36" s="14">
-        <v>0.33400000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E36" s="13">
-        <v>-138</v>
+        <v>-135</v>
       </c>
       <c r="F36" s="13">
-        <v>-103</v>
+        <v>8</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="13">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="13">
         <v>0</v>
@@ -2575,8 +2575,8 @@
       <c r="C38" s="13">
         <v>0</v>
       </c>
-      <c r="D38" s="14">
-        <v>-1</v>
+      <c r="D38" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -2605,22 +2605,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="C39" s="13">
-        <v>-74</v>
+        <v>-50</v>
       </c>
       <c r="D39" s="14">
-        <v>-0.26400000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E39" s="13">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="F39" s="13">
-        <v>-74</v>
+        <v>-50</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2643,22 +2643,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>-78</v>
+        <v>-40</v>
       </c>
       <c r="C40" s="13">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="D40" s="14">
-        <v>0.504</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="E40" s="13">
-        <v>-78</v>
+        <v>-40</v>
       </c>
       <c r="F40" s="13">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="13">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2719,22 +2719,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>-74</v>
+        <v>-45</v>
       </c>
       <c r="C42" s="10">
-        <v>1</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>53</v>
+        <v>-27</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.70499999999999996</v>
       </c>
       <c r="E42" s="10">
-        <v>-74</v>
+        <v>-45</v>
       </c>
       <c r="F42" s="10">
-        <v>1</v>
+        <v>-27</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="13">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>-74</v>
+        <v>-45</v>
       </c>
       <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>53</v>
+        <v>-27</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.70499999999999996</v>
       </c>
       <c r="E46" s="13">
-        <v>-74</v>
+        <v>-45</v>
       </c>
       <c r="F46" s="13">
-        <v>1</v>
+        <v>-27</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="C47" s="10">
+        <v>-4</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.312</v>
+      </c>
+      <c r="E47" s="10">
         <v>-6</v>
       </c>
-      <c r="D47" s="11">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="E47" s="10">
-        <v>-9</v>
-      </c>
       <c r="F47" s="10">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="C48" s="13">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.151</v>
+        <v>-0.219</v>
       </c>
       <c r="E48" s="13">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="F48" s="13">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="C50" s="13">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D50" s="14">
-        <v>0.439</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E50" s="13">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F50" s="13">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3102,19 +3102,19 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
+        <v>-26</v>
+      </c>
+      <c r="C52" s="10">
         <v>-20</v>
       </c>
-      <c r="C52" s="10">
-        <v>-21</v>
-      </c>
       <c r="D52" s="11">
-        <v>-7.2999999999999995E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E52" s="10">
+        <v>-26</v>
+      </c>
+      <c r="F52" s="10">
         <v>-20</v>
-      </c>
-      <c r="F52" s="10">
-        <v>-21</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
+        <v>-8</v>
+      </c>
+      <c r="C53" s="13">
         <v>-2</v>
       </c>
-      <c r="C53" s="13">
-        <v>5</v>
-      </c>
       <c r="D53" s="14">
-        <v>-1.4179999999999999</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="E53" s="13">
+        <v>-8</v>
+      </c>
+      <c r="F53" s="13">
         <v>-2</v>
-      </c>
-      <c r="F53" s="13">
-        <v>5</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,19 +3178,19 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="C54" s="13">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="D54" s="14">
-        <v>-0.34499999999999997</v>
+        <v>0.05</v>
       </c>
       <c r="E54" s="13">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="F54" s="13">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="G54" s="13">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" s="13">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -3444,19 +3444,19 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>13</v>
+        <v>-120</v>
       </c>
       <c r="C61" s="10">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="D61" s="11">
-        <v>0.17899999999999999</v>
+        <v>4.5529999999999999</v>
       </c>
       <c r="E61" s="10">
-        <v>13</v>
+        <v>-120</v>
       </c>
       <c r="F61" s="10">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3482,19 +3482,19 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>12</v>
+        <v>-120</v>
       </c>
       <c r="C62" s="13">
-        <v>12</v>
+        <v>-27</v>
       </c>
       <c r="D62" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>3.383</v>
       </c>
       <c r="E62" s="13">
-        <v>12</v>
+        <v>-120</v>
       </c>
       <c r="F62" s="13">
-        <v>12</v>
+        <v>-27</v>
       </c>
       <c r="G62" s="13">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
@@ -3558,19 +3558,19 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>2</v>
+        <v>-0.32</v>
       </c>
       <c r="C64" s="13">
-        <v>-0.31</v>
+        <v>6</v>
       </c>
       <c r="D64" s="14">
-        <v>-6.19</v>
+        <v>-1.056</v>
       </c>
       <c r="E64" s="13">
-        <v>2</v>
+        <v>-0.32</v>
       </c>
       <c r="F64" s="13">
-        <v>-0.31</v>
+        <v>6</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" s="13">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>-561</v>
+        <v>-607</v>
       </c>
       <c r="C68" s="10">
-        <v>-443</v>
+        <v>-285</v>
       </c>
       <c r="D68" s="11">
-        <v>0.26500000000000001</v>
+        <v>1.127</v>
       </c>
       <c r="E68" s="10">
-        <v>-471</v>
+        <v>-522</v>
       </c>
       <c r="F68" s="10">
-        <v>-364</v>
+        <v>-218</v>
       </c>
       <c r="G68" s="10">
-        <v>-90</v>
+        <v>-85</v>
       </c>
       <c r="H68" s="10">
-        <v>-79</v>
+        <v>-67</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
